--- a/cfs_3_0.5.xlsx
+++ b/cfs_3_0.5.xlsx
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="X59" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -5046,13 +5046,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C61" t="n">
         <v>75</v>
       </c>
       <c r="D61" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E61" t="n">
         <v>2</v>
@@ -5635,7 +5635,7 @@
         <v>4</v>
       </c>
       <c r="U68" t="n">
-        <v>63.7</v>
+        <v>63</v>
       </c>
       <c r="V68" t="n">
         <v>4</v>
@@ -6003,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>56.4</v>
+        <v>56</v>
       </c>
       <c r="R73" t="n">
         <v>61</v>
@@ -6097,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="W74" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X74" t="n">
         <v>3</v>
@@ -7389,7 +7389,7 @@
         <v>3</v>
       </c>
       <c r="W91" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X91" t="n">
         <v>3</v>
@@ -7462,7 +7462,7 @@
         <v>61</v>
       </c>
       <c r="V92" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="W92" t="n">
         <v>3</v>
@@ -7541,7 +7541,7 @@
         <v>5</v>
       </c>
       <c r="W93" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X93" t="n">
         <v>3</v>
@@ -7617,7 +7617,7 @@
         <v>5</v>
       </c>
       <c r="W94" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X94" t="n">
         <v>3</v>
@@ -7693,7 +7693,7 @@
         <v>6</v>
       </c>
       <c r="W95" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X95" t="n">
         <v>3</v>
